--- a/game_data_final/Olympiacos vs Barceloneta.xlsx
+++ b/game_data_final/Olympiacos vs Barceloneta.xlsx
@@ -538,7 +538,7 @@
         <v>2.0</v>
       </c>
       <c r="V2" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W2" s="2">
         <v>0.0</v>
@@ -616,7 +616,7 @@
         <v>1.0</v>
       </c>
       <c r="V3" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="2">
         <v>0.0</v>
@@ -694,7 +694,7 @@
         <v>0.0</v>
       </c>
       <c r="V4" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W4" s="2">
         <v>0.0</v>
@@ -772,7 +772,7 @@
         <v>0.0</v>
       </c>
       <c r="V5" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W5" s="2">
         <v>0.0</v>
@@ -850,7 +850,7 @@
         <v>1.0</v>
       </c>
       <c r="V6" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W6" s="2">
         <v>0.0</v>
@@ -928,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W7" s="2">
         <v>0.0</v>
@@ -1006,7 +1006,7 @@
         <v>1.0</v>
       </c>
       <c r="V8" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="2">
         <v>0.0</v>
@@ -1084,7 +1084,7 @@
         <v>2.0</v>
       </c>
       <c r="V9" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W9" s="2">
         <v>0.0</v>
@@ -1162,7 +1162,7 @@
         <v>2.0</v>
       </c>
       <c r="V10" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" s="2">
         <v>0.0</v>
@@ -1240,7 +1240,7 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W11" s="2">
         <v>0.0</v>
@@ -1318,7 +1318,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W12" s="4">
         <v>0.0</v>
@@ -1396,7 +1396,7 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W13" s="2">
         <v>0.0</v>
@@ -1474,7 +1474,7 @@
         <v>1.0</v>
       </c>
       <c r="V14" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W14" s="2">
         <v>0.0</v>
@@ -1552,7 +1552,7 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W15" s="2">
         <v>0.0</v>
@@ -1630,7 +1630,7 @@
         <v>1.0</v>
       </c>
       <c r="V16" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W16" s="9">
         <v>0.0</v>
@@ -1707,7 +1707,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W17" s="9">
         <v>0.0</v>
@@ -1784,7 +1784,7 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="9">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W18" s="9">
         <v>0.0</v>
@@ -1861,7 +1861,7 @@
         <v>1.0</v>
       </c>
       <c r="V19" s="9">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W19" s="9">
         <v>0.0</v>
